--- a/models/calculation engines/economic_overlay/outputs/delivery_costs/RGtoRR_Diesel_cost.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/delivery_costs/RGtoRR_Diesel_cost.xlsx
@@ -523,7 +523,7 @@
         <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>387.2592781360516</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G3" t="n">
         <v>55.88</v>
@@ -679,7 +679,7 @@
         <v>0.6</v>
       </c>
       <c r="F9" t="n">
-        <v>387.2592781360516</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G9" t="n">
         <v>55.88</v>
@@ -705,7 +705,7 @@
         <v>0.6</v>
       </c>
       <c r="F10" t="n">
-        <v>387.2592781360516</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G10" t="n">
         <v>55.88</v>
@@ -1823,7 +1823,7 @@
         <v>0.6</v>
       </c>
       <c r="F53" t="n">
-        <v>415.9062825046807</v>
+        <v>415.9063657166632</v>
       </c>
       <c r="G53" t="n">
         <v>57.2</v>
@@ -1849,7 +1849,7 @@
         <v>0.6</v>
       </c>
       <c r="F54" t="n">
-        <v>415.9062825046807</v>
+        <v>415.9063657166632</v>
       </c>
       <c r="G54" t="n">
         <v>57.2</v>
@@ -2577,7 +2577,7 @@
         <v>0.6</v>
       </c>
       <c r="F82" t="n">
-        <v>436.5630330767631</v>
+        <v>436.5631162887456</v>
       </c>
       <c r="G82" t="n">
         <v>57.2</v>
@@ -2603,7 +2603,7 @@
         <v>0.6</v>
       </c>
       <c r="F83" t="n">
-        <v>436.5630330767631</v>
+        <v>436.5631162887456</v>
       </c>
       <c r="G83" t="n">
         <v>57.2</v>
@@ -2681,7 +2681,7 @@
         <v>0.6</v>
       </c>
       <c r="F86" t="n">
-        <v>387.2592781360516</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G86" t="n">
         <v>55.88</v>
@@ -2707,7 +2707,7 @@
         <v>0.6</v>
       </c>
       <c r="F87" t="n">
-        <v>387.2592781360516</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G87" t="n">
         <v>55.88</v>
@@ -2733,7 +2733,7 @@
         <v>0.6</v>
       </c>
       <c r="F88" t="n">
-        <v>408.7359059704598</v>
+        <v>408.735833804868</v>
       </c>
       <c r="G88" t="n">
         <v>57.2</v>
@@ -2759,7 +2759,7 @@
         <v>0.6</v>
       </c>
       <c r="F89" t="n">
-        <v>387.2592781360516</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G89" t="n">
         <v>55.88</v>
@@ -2915,7 +2915,7 @@
         <v>0.6</v>
       </c>
       <c r="F95" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G95" t="n">
         <v>57.2</v>
@@ -2941,7 +2941,7 @@
         <v>0.6</v>
       </c>
       <c r="F96" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G96" t="n">
         <v>57.2</v>
@@ -2967,7 +2967,7 @@
         <v>0.6</v>
       </c>
       <c r="F97" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G97" t="n">
         <v>57.2</v>
@@ -2993,7 +2993,7 @@
         <v>0.6</v>
       </c>
       <c r="F98" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G98" t="n">
         <v>57.2</v>
@@ -3019,7 +3019,7 @@
         <v>0.6</v>
       </c>
       <c r="F99" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G99" t="n">
         <v>57.2</v>
@@ -3045,7 +3045,7 @@
         <v>0.6</v>
       </c>
       <c r="F100" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G100" t="n">
         <v>57.2</v>
@@ -3071,7 +3071,7 @@
         <v>0.6</v>
       </c>
       <c r="F101" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G101" t="n">
         <v>57.2</v>
@@ -3097,7 +3097,7 @@
         <v>0.6</v>
       </c>
       <c r="F102" t="n">
-        <v>437.7934262533805</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G102" t="n">
         <v>57.2</v>
@@ -4267,7 +4267,7 @@
         <v>0.6</v>
       </c>
       <c r="F147" t="n">
-        <v>387.2592781360516</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G147" t="n">
         <v>55.88</v>

--- a/models/calculation engines/economic_overlay/outputs/delivery_costs/RGtoRR_Diesel_cost.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/delivery_costs/RGtoRR_Diesel_cost.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,10 +523,10 @@
         <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>387.259078492823</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G3" t="n">
-        <v>55.88</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
         <v>305</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>180</v>
@@ -549,7 +549,7 @@
         <v>0.6</v>
       </c>
       <c r="F4" t="n">
-        <v>394.6952361140005</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G4" t="n">
         <v>55</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.4</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
         <v>180</v>
@@ -575,7 +575,7 @@
         <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>394.6952361140005</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G5" t="n">
         <v>55</v>
@@ -601,7 +601,7 @@
         <v>0.6</v>
       </c>
       <c r="F6" t="n">
-        <v>394.6952361140005</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G6" t="n">
         <v>55</v>
@@ -611,9 +611,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>180</v>
       </c>
@@ -626,12 +624,8 @@
       <c r="E7" t="n">
         <v>0.6</v>
       </c>
-      <c r="F7" t="n">
-        <v>394.6952361140005</v>
-      </c>
-      <c r="G7" t="n">
-        <v>55</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>305</v>
       </c>
@@ -653,10 +647,10 @@
         <v>0.6</v>
       </c>
       <c r="F8" t="n">
-        <v>394.6952361140005</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H8" t="n">
         <v>305</v>
@@ -679,10 +673,10 @@
         <v>0.6</v>
       </c>
       <c r="F9" t="n">
-        <v>387.259078492823</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G9" t="n">
-        <v>55.88</v>
+        <v>55</v>
       </c>
       <c r="H9" t="n">
         <v>305</v>
@@ -690,7 +684,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
         <v>180</v>
@@ -705,19 +699,17 @@
         <v>0.6</v>
       </c>
       <c r="F10" t="n">
-        <v>387.259078492823</v>
+        <v>462.2692947784482</v>
       </c>
       <c r="G10" t="n">
-        <v>55.88</v>
+        <v>57.2</v>
       </c>
       <c r="H10" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>180</v>
       </c>
@@ -730,20 +722,14 @@
       <c r="E11" t="n">
         <v>0.6</v>
       </c>
-      <c r="F11" t="n">
-        <v>365.6126482213439</v>
-      </c>
-      <c r="G11" t="n">
-        <v>55</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>20.8</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
         <v>180</v>
       </c>
@@ -756,19 +742,15 @@
       <c r="E12" t="n">
         <v>0.6</v>
       </c>
-      <c r="F12" t="n">
-        <v>365.6126482213439</v>
-      </c>
-      <c r="G12" t="n">
-        <v>55</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16</v>
+        <v>20.8</v>
       </c>
       <c r="B13" t="n">
         <v>180</v>
@@ -794,7 +776,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="B14" t="n">
         <v>180</v>
@@ -809,7 +791,7 @@
         <v>0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>365.6126482213439</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G14" t="n">
         <v>55</v>
@@ -820,7 +802,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>180</v>
@@ -846,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="B16" t="n">
         <v>180</v>
@@ -861,7 +843,7 @@
         <v>0.6</v>
       </c>
       <c r="F16" t="n">
-        <v>365.6126482213439</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G16" t="n">
         <v>55</v>
@@ -872,7 +854,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>180</v>
@@ -898,7 +880,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>56.2</v>
       </c>
       <c r="B18" t="n">
         <v>180</v>
@@ -913,7 +895,7 @@
         <v>0.6</v>
       </c>
       <c r="F18" t="n">
-        <v>365.6126482213439</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G18" t="n">
         <v>55</v>
@@ -939,7 +921,7 @@
         <v>0.6</v>
       </c>
       <c r="F19" t="n">
-        <v>365.6126482213439</v>
+        <v>394.6952361140005</v>
       </c>
       <c r="G19" t="n">
         <v>55</v>
@@ -950,7 +932,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>180</v>
@@ -965,10 +947,10 @@
         <v>0.6</v>
       </c>
       <c r="F20" t="n">
-        <v>365.6126482213439</v>
+        <v>351.7266486374039</v>
       </c>
       <c r="G20" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H20" t="n">
         <v>305</v>
@@ -976,7 +958,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
         <v>180</v>
@@ -991,7 +973,7 @@
         <v>0.6</v>
       </c>
       <c r="F21" t="n">
-        <v>365.6126482213439</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G21" t="n">
         <v>55</v>
@@ -1002,7 +984,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
         <v>180</v>
@@ -1017,7 +999,7 @@
         <v>0.6</v>
       </c>
       <c r="F22" t="n">
-        <v>365.6126482213439</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G22" t="n">
         <v>55</v>
@@ -1027,9 +1009,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>99.2</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>180</v>
       </c>
@@ -1042,12 +1022,8 @@
       <c r="E23" t="n">
         <v>0.6</v>
       </c>
-      <c r="F23" t="n">
-        <v>365.6126482213439</v>
-      </c>
-      <c r="G23" t="n">
-        <v>55</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
         <v>305</v>
       </c>
@@ -1069,10 +1045,10 @@
         <v>0.6</v>
       </c>
       <c r="F24" t="n">
-        <v>365.6126482213439</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G24" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H24" t="n">
         <v>305</v>
@@ -1080,7 +1056,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>180</v>
@@ -1095,7 +1071,7 @@
         <v>0.6</v>
       </c>
       <c r="F25" t="n">
-        <v>365.6126482213439</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G25" t="n">
         <v>55</v>
@@ -1106,7 +1082,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B26" t="n">
         <v>180</v>
@@ -1121,7 +1097,7 @@
         <v>0.6</v>
       </c>
       <c r="F26" t="n">
-        <v>365.6126482213439</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G26" t="n">
         <v>55</v>
@@ -1131,9 +1107,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
         <v>180</v>
       </c>
@@ -1146,19 +1120,15 @@
       <c r="E27" t="n">
         <v>0.6</v>
       </c>
-      <c r="F27" t="n">
-        <v>365.6126482213439</v>
-      </c>
-      <c r="G27" t="n">
-        <v>55</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17</v>
+        <v>28.712</v>
       </c>
       <c r="B28" t="n">
         <v>180</v>
@@ -1173,7 +1143,7 @@
         <v>0.6</v>
       </c>
       <c r="F28" t="n">
-        <v>365.6126482213439</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G28" t="n">
         <v>55</v>
@@ -1183,9 +1153,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
         <v>180</v>
       </c>
@@ -1198,19 +1166,15 @@
       <c r="E29" t="n">
         <v>0.6</v>
       </c>
-      <c r="F29" t="n">
-        <v>365.6126482213439</v>
-      </c>
-      <c r="G29" t="n">
-        <v>55</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
         <v>180</v>
@@ -1225,7 +1189,7 @@
         <v>0.6</v>
       </c>
       <c r="F30" t="n">
-        <v>365.6126482213439</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G30" t="n">
         <v>55</v>
@@ -1251,7 +1215,7 @@
         <v>0.6</v>
       </c>
       <c r="F31" t="n">
-        <v>365.6126482213439</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G31" t="n">
         <v>55</v>
@@ -1277,7 +1241,7 @@
         <v>0.6</v>
       </c>
       <c r="F32" t="n">
-        <v>365.6126482213439</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G32" t="n">
         <v>55</v>
@@ -1303,7 +1267,7 @@
         <v>0.6</v>
       </c>
       <c r="F33" t="n">
-        <v>365.6126482213439</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G33" t="n">
         <v>55</v>
@@ -1340,7 +1304,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17.6</v>
+        <v>7.2</v>
       </c>
       <c r="B35" t="n">
         <v>180</v>
@@ -1365,9 +1329,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>20</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>180</v>
       </c>
@@ -1380,19 +1342,15 @@
       <c r="E36" t="n">
         <v>0.6</v>
       </c>
-      <c r="F36" t="n">
-        <v>428.7809444560017</v>
-      </c>
-      <c r="G36" t="n">
-        <v>55</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
         <v>180</v>
@@ -1407,7 +1365,7 @@
         <v>0.6</v>
       </c>
       <c r="F37" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G37" t="n">
         <v>55</v>
@@ -1417,9 +1375,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>20</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
         <v>180</v>
       </c>
@@ -1432,19 +1388,15 @@
       <c r="E38" t="n">
         <v>0.6</v>
       </c>
-      <c r="F38" t="n">
-        <v>428.7809444560017</v>
-      </c>
-      <c r="G38" t="n">
-        <v>55</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>180</v>
@@ -1459,10 +1411,10 @@
         <v>0.6</v>
       </c>
       <c r="F39" t="n">
-        <v>428.7809444560017</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G39" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H39" t="n">
         <v>305</v>
@@ -1470,7 +1422,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>23.78</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>180</v>
@@ -1485,7 +1437,7 @@
         <v>0.6</v>
       </c>
       <c r="F40" t="n">
-        <v>428.7809444560017</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G40" t="n">
         <v>55</v>
@@ -1496,7 +1448,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>180</v>
@@ -1511,7 +1463,7 @@
         <v>0.6</v>
       </c>
       <c r="F41" t="n">
-        <v>428.7809444560017</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G41" t="n">
         <v>55</v>
@@ -1522,7 +1474,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>36.8</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
         <v>180</v>
@@ -1537,7 +1489,7 @@
         <v>0.6</v>
       </c>
       <c r="F42" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G42" t="n">
         <v>55</v>
@@ -1548,7 +1500,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11.04</v>
+        <v>45.2</v>
       </c>
       <c r="B43" t="n">
         <v>180</v>
@@ -1563,7 +1515,7 @@
         <v>0.6</v>
       </c>
       <c r="F43" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G43" t="n">
         <v>55</v>
@@ -1574,7 +1526,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
         <v>180</v>
@@ -1589,7 +1541,7 @@
         <v>0.6</v>
       </c>
       <c r="F44" t="n">
-        <v>428.7809444560017</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G44" t="n">
         <v>55</v>
@@ -1600,7 +1552,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>56.86000000000001</v>
       </c>
       <c r="B45" t="n">
         <v>180</v>
@@ -1615,7 +1567,7 @@
         <v>0.6</v>
       </c>
       <c r="F45" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G45" t="n">
         <v>55</v>
@@ -1626,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B46" t="n">
         <v>180</v>
@@ -1652,7 +1604,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20.12</v>
+        <v>6</v>
       </c>
       <c r="B47" t="n">
         <v>180</v>
@@ -1667,7 +1619,7 @@
         <v>0.6</v>
       </c>
       <c r="F47" t="n">
-        <v>428.7809444560017</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G47" t="n">
         <v>55</v>
@@ -1678,7 +1630,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7.48</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>180</v>
@@ -1693,7 +1645,7 @@
         <v>0.6</v>
       </c>
       <c r="F48" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G48" t="n">
         <v>55</v>
@@ -1704,7 +1656,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12.8</v>
+        <v>34</v>
       </c>
       <c r="B49" t="n">
         <v>180</v>
@@ -1719,7 +1671,7 @@
         <v>0.6</v>
       </c>
       <c r="F49" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G49" t="n">
         <v>55</v>
@@ -1730,7 +1682,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>54.8</v>
+        <v>57.24</v>
       </c>
       <c r="B50" t="n">
         <v>180</v>
@@ -1745,7 +1697,7 @@
         <v>0.6</v>
       </c>
       <c r="F50" t="n">
-        <v>428.7809444560017</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G50" t="n">
         <v>55</v>
@@ -1756,7 +1708,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16.08</v>
+        <v>10</v>
       </c>
       <c r="B51" t="n">
         <v>180</v>
@@ -1771,7 +1723,7 @@
         <v>0.6</v>
       </c>
       <c r="F51" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G51" t="n">
         <v>55</v>
@@ -1782,7 +1734,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="B52" t="n">
         <v>180</v>
@@ -1797,7 +1749,7 @@
         <v>0.6</v>
       </c>
       <c r="F52" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G52" t="n">
         <v>55</v>
@@ -1823,10 +1775,10 @@
         <v>0.6</v>
       </c>
       <c r="F53" t="n">
-        <v>415.9063657166632</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G53" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H53" t="n">
         <v>305</v>
@@ -1834,7 +1786,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>19.4</v>
       </c>
       <c r="B54" t="n">
         <v>180</v>
@@ -1849,10 +1801,10 @@
         <v>0.6</v>
       </c>
       <c r="F54" t="n">
-        <v>415.9063657166632</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G54" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H54" t="n">
         <v>305</v>
@@ -1901,10 +1853,10 @@
         <v>0.6</v>
       </c>
       <c r="F56" t="n">
-        <v>351.7266486374039</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G56" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H56" t="n">
         <v>305</v>
@@ -1912,7 +1864,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B57" t="n">
         <v>180</v>
@@ -1927,10 +1879,10 @@
         <v>0.6</v>
       </c>
       <c r="F57" t="n">
-        <v>351.7266486374039</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G57" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H57" t="n">
         <v>305</v>
@@ -1938,7 +1890,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B58" t="n">
         <v>180</v>
@@ -1953,10 +1905,10 @@
         <v>0.6</v>
       </c>
       <c r="F58" t="n">
-        <v>351.7266486374039</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G58" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H58" t="n">
         <v>305</v>
@@ -1964,7 +1916,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="B59" t="n">
         <v>180</v>
@@ -1979,10 +1931,10 @@
         <v>0.6</v>
       </c>
       <c r="F59" t="n">
-        <v>351.7266486374039</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G59" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H59" t="n">
         <v>305</v>
@@ -1990,7 +1942,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43</v>
+        <v>23.78</v>
       </c>
       <c r="B60" t="n">
         <v>180</v>
@@ -2005,7 +1957,7 @@
         <v>0.6</v>
       </c>
       <c r="F60" t="n">
-        <v>342.1884751404203</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G60" t="n">
         <v>55</v>
@@ -2016,7 +1968,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14.98</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
         <v>180</v>
@@ -2031,7 +1983,7 @@
         <v>0.6</v>
       </c>
       <c r="F61" t="n">
-        <v>342.1884751404203</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G61" t="n">
         <v>55</v>
@@ -2042,7 +1994,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>28.712</v>
+        <v>58</v>
       </c>
       <c r="B62" t="n">
         <v>180</v>
@@ -2057,7 +2009,7 @@
         <v>0.6</v>
       </c>
       <c r="F62" t="n">
-        <v>342.1884751404203</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G62" t="n">
         <v>55</v>
@@ -2068,7 +2020,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63" t="n">
         <v>180</v>
@@ -2083,7 +2035,7 @@
         <v>0.6</v>
       </c>
       <c r="F63" t="n">
-        <v>342.1884751404203</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G63" t="n">
         <v>55</v>
@@ -2094,7 +2046,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>57.24</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
         <v>180</v>
@@ -2109,7 +2061,7 @@
         <v>0.6</v>
       </c>
       <c r="F64" t="n">
-        <v>342.1884751404203</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G64" t="n">
         <v>55</v>
@@ -2120,7 +2072,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="B65" t="n">
         <v>180</v>
@@ -2135,7 +2087,7 @@
         <v>0.6</v>
       </c>
       <c r="F65" t="n">
-        <v>342.1884751404203</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G65" t="n">
         <v>55</v>
@@ -2146,7 +2098,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>57.32000000000001</v>
+        <v>16</v>
       </c>
       <c r="B66" t="n">
         <v>180</v>
@@ -2161,7 +2113,7 @@
         <v>0.6</v>
       </c>
       <c r="F66" t="n">
-        <v>342.1884751404203</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G66" t="n">
         <v>55</v>
@@ -2172,7 +2124,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>17.62</v>
+        <v>36.8</v>
       </c>
       <c r="B67" t="n">
         <v>180</v>
@@ -2187,7 +2139,7 @@
         <v>0.6</v>
       </c>
       <c r="F67" t="n">
-        <v>342.1884751404203</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G67" t="n">
         <v>55</v>
@@ -2198,7 +2150,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>14.4</v>
+        <v>40</v>
       </c>
       <c r="B68" t="n">
         <v>180</v>
@@ -2213,7 +2165,7 @@
         <v>0.6</v>
       </c>
       <c r="F68" t="n">
-        <v>342.1884751404203</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G68" t="n">
         <v>55</v>
@@ -2224,7 +2176,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="B69" t="n">
         <v>180</v>
@@ -2239,7 +2191,7 @@
         <v>0.6</v>
       </c>
       <c r="F69" t="n">
-        <v>342.1884751404203</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G69" t="n">
         <v>55</v>
@@ -2250,7 +2202,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
         <v>180</v>
@@ -2265,7 +2217,7 @@
         <v>0.6</v>
       </c>
       <c r="F70" t="n">
-        <v>342.1884751404203</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G70" t="n">
         <v>55</v>
@@ -2276,7 +2228,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>45.40000000000001</v>
+        <v>57.32000000000001</v>
       </c>
       <c r="B71" t="n">
         <v>180</v>
@@ -2302,7 +2254,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25.42</v>
+        <v>8</v>
       </c>
       <c r="B72" t="n">
         <v>180</v>
@@ -2317,7 +2269,7 @@
         <v>0.6</v>
       </c>
       <c r="F72" t="n">
-        <v>342.1884751404203</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G72" t="n">
         <v>55</v>
@@ -2328,7 +2280,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>16.71</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
         <v>180</v>
@@ -2343,7 +2295,7 @@
         <v>0.6</v>
       </c>
       <c r="F73" t="n">
-        <v>342.1884751404203</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G73" t="n">
         <v>55</v>
@@ -2353,9 +2305,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>21.28</v>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="n">
         <v>180</v>
       </c>
@@ -2368,20 +2318,14 @@
       <c r="E74" t="n">
         <v>0.6</v>
       </c>
-      <c r="F74" t="n">
-        <v>342.1884751404203</v>
-      </c>
-      <c r="G74" t="n">
-        <v>55</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>8</v>
-      </c>
+      <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
         <v>180</v>
       </c>
@@ -2394,19 +2338,15 @@
       <c r="E75" t="n">
         <v>0.6</v>
       </c>
-      <c r="F75" t="n">
-        <v>342.1884751404203</v>
-      </c>
-      <c r="G75" t="n">
-        <v>55</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>35.32</v>
+        <v>24</v>
       </c>
       <c r="B76" t="n">
         <v>180</v>
@@ -2421,7 +2361,7 @@
         <v>0.6</v>
       </c>
       <c r="F76" t="n">
-        <v>342.1884751404203</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G76" t="n">
         <v>55</v>
@@ -2432,7 +2372,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>32.16</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
         <v>180</v>
@@ -2447,7 +2387,7 @@
         <v>0.6</v>
       </c>
       <c r="F77" t="n">
-        <v>342.1884751404203</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G77" t="n">
         <v>55</v>
@@ -2458,7 +2398,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>28</v>
+        <v>17.62</v>
       </c>
       <c r="B78" t="n">
         <v>180</v>
@@ -2499,7 +2439,7 @@
         <v>0.6</v>
       </c>
       <c r="F79" t="n">
-        <v>342.1884751404203</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G79" t="n">
         <v>55</v>
@@ -2510,7 +2450,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>35.9</v>
+        <v>6.4</v>
       </c>
       <c r="B80" t="n">
         <v>180</v>
@@ -2525,7 +2465,7 @@
         <v>0.6</v>
       </c>
       <c r="F80" t="n">
-        <v>342.1884751404203</v>
+        <v>394.6952361140005</v>
       </c>
       <c r="G80" t="n">
         <v>55</v>
@@ -2536,7 +2476,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="B81" t="n">
         <v>180</v>
@@ -2551,7 +2491,7 @@
         <v>0.6</v>
       </c>
       <c r="F81" t="n">
-        <v>342.1884751404203</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G81" t="n">
         <v>55</v>
@@ -2562,7 +2502,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
         <v>180</v>
@@ -2577,10 +2517,10 @@
         <v>0.6</v>
       </c>
       <c r="F82" t="n">
-        <v>436.5631162887456</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G82" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H82" t="n">
         <v>305</v>
@@ -2588,7 +2528,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>30.94</v>
       </c>
       <c r="B83" t="n">
         <v>180</v>
@@ -2603,10 +2543,10 @@
         <v>0.6</v>
       </c>
       <c r="F83" t="n">
-        <v>436.5631162887456</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G83" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H83" t="n">
         <v>305</v>
@@ -2614,7 +2554,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>180</v>
@@ -2629,10 +2569,10 @@
         <v>0.6</v>
       </c>
       <c r="F84" t="n">
-        <v>462.2692947784482</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G84" t="n">
-        <v>57.2</v>
+        <v>55.88</v>
       </c>
       <c r="H84" t="n">
         <v>305</v>
@@ -2655,10 +2595,10 @@
         <v>0.6</v>
       </c>
       <c r="F85" t="n">
-        <v>462.2692947784482</v>
+        <v>394.6952361140005</v>
       </c>
       <c r="G85" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H85" t="n">
         <v>305</v>
@@ -2733,10 +2673,10 @@
         <v>0.6</v>
       </c>
       <c r="F88" t="n">
-        <v>408.735833804868</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G88" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H88" t="n">
         <v>305</v>
@@ -2759,10 +2699,10 @@
         <v>0.6</v>
       </c>
       <c r="F89" t="n">
-        <v>387.259078492823</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G89" t="n">
-        <v>55.88</v>
+        <v>55</v>
       </c>
       <c r="H89" t="n">
         <v>305</v>
@@ -2785,10 +2725,10 @@
         <v>0.6</v>
       </c>
       <c r="F90" t="n">
-        <v>351.7266486374039</v>
+        <v>415.9063657166632</v>
       </c>
       <c r="G90" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H90" t="n">
         <v>305</v>
@@ -2814,7 +2754,7 @@
         <v>351.7266486374039</v>
       </c>
       <c r="G91" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H91" t="n">
         <v>305</v>
@@ -2837,7 +2777,7 @@
         <v>0.6</v>
       </c>
       <c r="F92" t="n">
-        <v>351.7266486374039</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G92" t="n">
         <v>55</v>
@@ -2863,10 +2803,10 @@
         <v>0.6</v>
       </c>
       <c r="F93" t="n">
-        <v>351.7266486374039</v>
+        <v>436.5631162887456</v>
       </c>
       <c r="G93" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H93" t="n">
         <v>305</v>
@@ -2889,10 +2829,10 @@
         <v>0.6</v>
       </c>
       <c r="F94" t="n">
-        <v>351.7266486374039</v>
+        <v>462.2692947784482</v>
       </c>
       <c r="G94" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H94" t="n">
         <v>305</v>
@@ -2915,10 +2855,10 @@
         <v>0.6</v>
       </c>
       <c r="F95" t="n">
-        <v>437.7935094653631</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G95" t="n">
-        <v>57.2</v>
+        <v>55.88</v>
       </c>
       <c r="H95" t="n">
         <v>305</v>
@@ -2941,7 +2881,7 @@
         <v>0.6</v>
       </c>
       <c r="F96" t="n">
-        <v>437.7935094653631</v>
+        <v>408.735833804868</v>
       </c>
       <c r="G96" t="n">
         <v>57.2</v>
@@ -2967,10 +2907,10 @@
         <v>0.6</v>
       </c>
       <c r="F97" t="n">
-        <v>437.7935094653631</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G97" t="n">
-        <v>57.2</v>
+        <v>55.88</v>
       </c>
       <c r="H97" t="n">
         <v>305</v>
@@ -3019,10 +2959,10 @@
         <v>0.6</v>
       </c>
       <c r="F99" t="n">
-        <v>437.7935094653631</v>
+        <v>351.7266486374039</v>
       </c>
       <c r="G99" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H99" t="n">
         <v>305</v>
@@ -3045,10 +2985,10 @@
         <v>0.6</v>
       </c>
       <c r="F100" t="n">
-        <v>437.7935094653631</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G100" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H100" t="n">
         <v>305</v>
@@ -3071,10 +3011,10 @@
         <v>0.6</v>
       </c>
       <c r="F101" t="n">
-        <v>437.7935094653631</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G101" t="n">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="H101" t="n">
         <v>305</v>
@@ -3097,10 +3037,10 @@
         <v>0.6</v>
       </c>
       <c r="F102" t="n">
-        <v>437.7935094653631</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G102" t="n">
-        <v>57.2</v>
+        <v>55.88</v>
       </c>
       <c r="H102" t="n">
         <v>305</v>
@@ -3108,7 +3048,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>180</v>
@@ -3123,7 +3063,7 @@
         <v>0.6</v>
       </c>
       <c r="F103" t="n">
-        <v>289.9417516122322</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G103" t="n">
         <v>55</v>
@@ -3134,7 +3074,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>56.2</v>
+        <v>14.4</v>
       </c>
       <c r="B104" t="n">
         <v>180</v>
@@ -3149,7 +3089,7 @@
         <v>0.6</v>
       </c>
       <c r="F104" t="n">
-        <v>289.9417516122322</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G104" t="n">
         <v>55</v>
@@ -3175,7 +3115,7 @@
         <v>0.6</v>
       </c>
       <c r="F105" t="n">
-        <v>289.9417516122322</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G105" t="n">
         <v>55</v>
@@ -3186,7 +3126,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11</v>
+        <v>30.2</v>
       </c>
       <c r="B106" t="n">
         <v>180</v>
@@ -3227,7 +3167,7 @@
         <v>0.6</v>
       </c>
       <c r="F107" t="n">
-        <v>289.9417516122322</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G107" t="n">
         <v>55</v>
@@ -3238,7 +3178,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
         <v>180</v>
@@ -3253,10 +3193,10 @@
         <v>0.6</v>
       </c>
       <c r="F108" t="n">
-        <v>289.9417516122322</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G108" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H108" t="n">
         <v>305</v>
@@ -3279,10 +3219,10 @@
         <v>0.6</v>
       </c>
       <c r="F109" t="n">
-        <v>289.9417516122322</v>
+        <v>387.259078492823</v>
       </c>
       <c r="G109" t="n">
-        <v>55</v>
+        <v>55.88</v>
       </c>
       <c r="H109" t="n">
         <v>305</v>
@@ -3290,7 +3230,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>45.2</v>
+        <v>11.04</v>
       </c>
       <c r="B110" t="n">
         <v>180</v>
@@ -3305,7 +3245,7 @@
         <v>0.6</v>
       </c>
       <c r="F110" t="n">
-        <v>289.9417516122322</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G110" t="n">
         <v>55</v>
@@ -3316,7 +3256,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>56.86000000000001</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
         <v>180</v>
@@ -3331,7 +3271,7 @@
         <v>0.6</v>
       </c>
       <c r="F111" t="n">
-        <v>289.9417516122322</v>
+        <v>394.6952361140005</v>
       </c>
       <c r="G111" t="n">
         <v>55</v>
@@ -3342,7 +3282,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B112" t="n">
         <v>180</v>
@@ -3357,7 +3297,7 @@
         <v>0.6</v>
       </c>
       <c r="F112" t="n">
-        <v>289.9417516122322</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G112" t="n">
         <v>55</v>
@@ -3368,7 +3308,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>34</v>
+        <v>53.2</v>
       </c>
       <c r="B113" t="n">
         <v>180</v>
@@ -3393,9 +3333,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>10</v>
-      </c>
+      <c r="A114" t="inlineStr"/>
       <c r="B114" t="n">
         <v>180</v>
       </c>
@@ -3408,19 +3346,15 @@
       <c r="E114" t="n">
         <v>0.6</v>
       </c>
-      <c r="F114" t="n">
-        <v>289.9417516122322</v>
-      </c>
-      <c r="G114" t="n">
-        <v>55</v>
-      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B115" t="n">
         <v>180</v>
@@ -3435,7 +3369,7 @@
         <v>0.6</v>
       </c>
       <c r="F115" t="n">
-        <v>289.9417516122322</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G115" t="n">
         <v>55</v>
@@ -3446,7 +3380,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>71.40000000000001</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="B116" t="n">
         <v>180</v>
@@ -3461,7 +3395,7 @@
         <v>0.6</v>
       </c>
       <c r="F116" t="n">
-        <v>289.9417516122322</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G116" t="n">
         <v>55</v>
@@ -3471,9 +3405,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>58</v>
-      </c>
+      <c r="A117" t="inlineStr"/>
       <c r="B117" t="n">
         <v>180</v>
       </c>
@@ -3486,19 +3418,15 @@
       <c r="E117" t="n">
         <v>0.6</v>
       </c>
-      <c r="F117" t="n">
-        <v>289.9417516122322</v>
-      </c>
-      <c r="G117" t="n">
-        <v>55</v>
-      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8</v>
+        <v>25.42</v>
       </c>
       <c r="B118" t="n">
         <v>180</v>
@@ -3513,7 +3441,7 @@
         <v>0.6</v>
       </c>
       <c r="F118" t="n">
-        <v>289.9417516122322</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G118" t="n">
         <v>55</v>
@@ -3524,7 +3452,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6.4</v>
+        <v>16.71</v>
       </c>
       <c r="B119" t="n">
         <v>180</v>
@@ -3539,7 +3467,7 @@
         <v>0.6</v>
       </c>
       <c r="F119" t="n">
-        <v>289.9417516122322</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G119" t="n">
         <v>55</v>
@@ -3565,7 +3493,7 @@
         <v>0.6</v>
       </c>
       <c r="F120" t="n">
-        <v>289.9417516122322</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G120" t="n">
         <v>55</v>
@@ -3576,7 +3504,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>125</v>
+        <v>33.62</v>
       </c>
       <c r="B121" t="n">
         <v>180</v>
@@ -3602,7 +3530,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B122" t="n">
         <v>180</v>
@@ -3628,7 +3556,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="B123" t="n">
         <v>180</v>
@@ -3643,7 +3571,7 @@
         <v>0.6</v>
       </c>
       <c r="F123" t="n">
-        <v>289.9417516122322</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G123" t="n">
         <v>55</v>
@@ -3654,7 +3582,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>30.94</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
         <v>180</v>
@@ -3669,7 +3597,7 @@
         <v>0.6</v>
       </c>
       <c r="F124" t="n">
-        <v>289.9417516122322</v>
+        <v>351.7266486374039</v>
       </c>
       <c r="G124" t="n">
         <v>55</v>
@@ -3680,7 +3608,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
         <v>180</v>
@@ -3695,10 +3623,10 @@
         <v>0.6</v>
       </c>
       <c r="F125" t="n">
-        <v>289.9417516122322</v>
+        <v>351.7266486374039</v>
       </c>
       <c r="G125" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H125" t="n">
         <v>305</v>
@@ -3706,7 +3634,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
         <v>180</v>
@@ -3721,7 +3649,7 @@
         <v>0.6</v>
       </c>
       <c r="F126" t="n">
-        <v>289.9417516122322</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G126" t="n">
         <v>55</v>
@@ -3732,7 +3660,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>33.62</v>
+        <v>17</v>
       </c>
       <c r="B127" t="n">
         <v>180</v>
@@ -3747,7 +3675,7 @@
         <v>0.6</v>
       </c>
       <c r="F127" t="n">
-        <v>289.9417516122322</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G127" t="n">
         <v>55</v>
@@ -3758,7 +3686,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
         <v>180</v>
@@ -3773,7 +3701,7 @@
         <v>0.6</v>
       </c>
       <c r="F128" t="n">
-        <v>289.9417516122322</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G128" t="n">
         <v>55</v>
@@ -3784,7 +3712,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>45.1</v>
+        <v>8</v>
       </c>
       <c r="B129" t="n">
         <v>180</v>
@@ -3799,7 +3727,7 @@
         <v>0.6</v>
       </c>
       <c r="F129" t="n">
-        <v>289.9417516122322</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G129" t="n">
         <v>55</v>
@@ -3810,7 +3738,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>16</v>
+        <v>25.6</v>
       </c>
       <c r="B130" t="n">
         <v>180</v>
@@ -3825,7 +3753,7 @@
         <v>0.6</v>
       </c>
       <c r="F130" t="n">
-        <v>289.9417516122322</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G130" t="n">
         <v>55</v>
@@ -3836,7 +3764,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
         <v>180</v>
@@ -3851,10 +3779,10 @@
         <v>0.6</v>
       </c>
       <c r="F131" t="n">
-        <v>289.9417516122322</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G131" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H131" t="n">
         <v>305</v>
@@ -3862,7 +3790,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B132" t="n">
         <v>180</v>
@@ -3877,7 +3805,7 @@
         <v>0.6</v>
       </c>
       <c r="F132" t="n">
-        <v>289.9417516122322</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G132" t="n">
         <v>55</v>
@@ -3887,9 +3815,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>34.152</v>
-      </c>
+      <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
         <v>180</v>
       </c>
@@ -3902,19 +3828,15 @@
       <c r="E133" t="n">
         <v>0.6</v>
       </c>
-      <c r="F133" t="n">
-        <v>289.9417516122322</v>
-      </c>
-      <c r="G133" t="n">
-        <v>55</v>
-      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>55.42000000000001</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
         <v>180</v>
@@ -3929,10 +3851,10 @@
         <v>0.6</v>
       </c>
       <c r="F134" t="n">
-        <v>289.9417516122322</v>
+        <v>415.9063657166632</v>
       </c>
       <c r="G134" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H134" t="n">
         <v>305</v>
@@ -3940,7 +3862,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>51.2</v>
+        <v>16</v>
       </c>
       <c r="B135" t="n">
         <v>180</v>
@@ -3955,7 +3877,7 @@
         <v>0.6</v>
       </c>
       <c r="F135" t="n">
-        <v>289.9417516122322</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G135" t="n">
         <v>55</v>
@@ -3966,7 +3888,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>37.8</v>
+        <v>40</v>
       </c>
       <c r="B136" t="n">
         <v>180</v>
@@ -3981,7 +3903,7 @@
         <v>0.6</v>
       </c>
       <c r="F136" t="n">
-        <v>289.9417516122322</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G136" t="n">
         <v>55</v>
@@ -3992,7 +3914,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>99.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
         <v>180</v>
@@ -4007,10 +3929,10 @@
         <v>0.6</v>
       </c>
       <c r="F137" t="n">
-        <v>289.9417516122322</v>
+        <v>351.7266486374039</v>
       </c>
       <c r="G137" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H137" t="n">
         <v>305</v>
@@ -4018,7 +3940,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>38.2</v>
+        <v>12</v>
       </c>
       <c r="B138" t="n">
         <v>180</v>
@@ -4033,7 +3955,7 @@
         <v>0.6</v>
       </c>
       <c r="F138" t="n">
-        <v>289.9417516122322</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G138" t="n">
         <v>55</v>
@@ -4044,7 +3966,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>33</v>
+        <v>19.2</v>
       </c>
       <c r="B139" t="n">
         <v>180</v>
@@ -4059,7 +3981,7 @@
         <v>0.6</v>
       </c>
       <c r="F139" t="n">
-        <v>289.9417516122322</v>
+        <v>394.6952361140005</v>
       </c>
       <c r="G139" t="n">
         <v>55</v>
@@ -4070,7 +3992,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>60</v>
+        <v>45.1</v>
       </c>
       <c r="B140" t="n">
         <v>180</v>
@@ -4096,7 +4018,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B141" t="n">
         <v>180</v>
@@ -4122,7 +4044,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B142" t="n">
         <v>180</v>
@@ -4137,7 +4059,7 @@
         <v>0.6</v>
       </c>
       <c r="F142" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G142" t="n">
         <v>55</v>
@@ -4148,7 +4070,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B143" t="n">
         <v>180</v>
@@ -4163,7 +4085,7 @@
         <v>0.6</v>
       </c>
       <c r="F143" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G143" t="n">
         <v>55</v>
@@ -4174,7 +4096,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>34.152</v>
       </c>
       <c r="B144" t="n">
         <v>180</v>
@@ -4189,7 +4111,7 @@
         <v>0.6</v>
       </c>
       <c r="F144" t="n">
-        <v>428.7809444560017</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G144" t="n">
         <v>55</v>
@@ -4200,7 +4122,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B145" t="n">
         <v>180</v>
@@ -4215,7 +4137,7 @@
         <v>0.6</v>
       </c>
       <c r="F145" t="n">
-        <v>428.7809444560017</v>
+        <v>464.4268774703557</v>
       </c>
       <c r="G145" t="n">
         <v>55</v>
@@ -4226,7 +4148,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>20.12</v>
       </c>
       <c r="B146" t="n">
         <v>180</v>
@@ -4252,7 +4174,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>21.28</v>
       </c>
       <c r="B147" t="n">
         <v>180</v>
@@ -4267,10 +4189,10 @@
         <v>0.6</v>
       </c>
       <c r="F147" t="n">
-        <v>387.259078492823</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G147" t="n">
-        <v>55.88</v>
+        <v>55</v>
       </c>
       <c r="H147" t="n">
         <v>305</v>
@@ -4278,7 +4200,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>55.42000000000001</v>
       </c>
       <c r="B148" t="n">
         <v>180</v>
@@ -4293,7 +4215,7 @@
         <v>0.6</v>
       </c>
       <c r="F148" t="n">
-        <v>464.4268774703557</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G148" t="n">
         <v>55</v>
@@ -4304,7 +4226,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B149" t="n">
         <v>180</v>
@@ -4319,7 +4241,7 @@
         <v>0.6</v>
       </c>
       <c r="F149" t="n">
-        <v>464.4268774703557</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G149" t="n">
         <v>55</v>
@@ -4330,7 +4252,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>35.32</v>
       </c>
       <c r="B150" t="n">
         <v>180</v>
@@ -4345,7 +4267,7 @@
         <v>0.6</v>
       </c>
       <c r="F150" t="n">
-        <v>464.4268774703557</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G150" t="n">
         <v>55</v>
@@ -4382,7 +4304,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="B152" t="n">
         <v>180</v>
@@ -4397,7 +4319,7 @@
         <v>0.6</v>
       </c>
       <c r="F152" t="n">
-        <v>464.4268774703557</v>
+        <v>428.7809444560017</v>
       </c>
       <c r="G152" t="n">
         <v>55</v>
@@ -4423,10 +4345,10 @@
         <v>0.6</v>
       </c>
       <c r="F153" t="n">
-        <v>464.4268774703557</v>
+        <v>437.7935094653631</v>
       </c>
       <c r="G153" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H153" t="n">
         <v>305</v>
@@ -4434,7 +4356,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>51.2</v>
       </c>
       <c r="B154" t="n">
         <v>180</v>
@@ -4449,7 +4371,7 @@
         <v>0.6</v>
       </c>
       <c r="F154" t="n">
-        <v>464.4268774703557</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G154" t="n">
         <v>55</v>
@@ -4460,7 +4382,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>99.60000000000001</v>
       </c>
       <c r="B155" t="n">
         <v>180</v>
@@ -4475,7 +4397,7 @@
         <v>0.6</v>
       </c>
       <c r="F155" t="n">
-        <v>464.4268774703557</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G155" t="n">
         <v>55</v>
@@ -4512,7 +4434,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>24</v>
+        <v>32.16</v>
       </c>
       <c r="B157" t="n">
         <v>180</v>
@@ -4527,7 +4449,7 @@
         <v>0.6</v>
       </c>
       <c r="F157" t="n">
-        <v>464.4268774703557</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G157" t="n">
         <v>55</v>
@@ -4538,7 +4460,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B158" t="n">
         <v>180</v>
@@ -4553,10 +4475,10 @@
         <v>0.6</v>
       </c>
       <c r="F158" t="n">
-        <v>464.4268774703557</v>
+        <v>436.5631162887456</v>
       </c>
       <c r="G158" t="n">
-        <v>55</v>
+        <v>57.2</v>
       </c>
       <c r="H158" t="n">
         <v>305</v>
@@ -4564,7 +4486,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B159" t="n">
         <v>180</v>
@@ -4579,7 +4501,7 @@
         <v>0.6</v>
       </c>
       <c r="F159" t="n">
-        <v>464.4268774703557</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G159" t="n">
         <v>55</v>
@@ -4590,7 +4512,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
         <v>180</v>
@@ -4605,7 +4527,7 @@
         <v>0.6</v>
       </c>
       <c r="F160" t="n">
-        <v>464.4268774703557</v>
+        <v>289.9417516122322</v>
       </c>
       <c r="G160" t="n">
         <v>55</v>
@@ -4631,7 +4553,7 @@
         <v>0.6</v>
       </c>
       <c r="F161" t="n">
-        <v>464.4268774703557</v>
+        <v>342.1884751404203</v>
       </c>
       <c r="G161" t="n">
         <v>55</v>
@@ -4657,7 +4579,7 @@
         <v>0.6</v>
       </c>
       <c r="F162" t="n">
-        <v>464.4268774703557</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G162" t="n">
         <v>55</v>
@@ -4683,12 +4605,350 @@
         <v>0.6</v>
       </c>
       <c r="F163" t="n">
-        <v>464.4268774703557</v>
+        <v>365.6126482213439</v>
       </c>
       <c r="G163" t="n">
         <v>55</v>
       </c>
       <c r="H163" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="B164" t="n">
+        <v>180</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>289.9417516122322</v>
+      </c>
+      <c r="G164" t="n">
+        <v>55</v>
+      </c>
+      <c r="H164" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="B165" t="n">
+        <v>180</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>289.9417516122322</v>
+      </c>
+      <c r="G165" t="n">
+        <v>55</v>
+      </c>
+      <c r="H165" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="B166" t="n">
+        <v>180</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>289.9417516122322</v>
+      </c>
+      <c r="G166" t="n">
+        <v>55</v>
+      </c>
+      <c r="H166" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="B167" t="n">
+        <v>180</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>342.1884751404203</v>
+      </c>
+      <c r="G167" t="n">
+        <v>55</v>
+      </c>
+      <c r="H167" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>180</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>351.7266486374039</v>
+      </c>
+      <c r="G168" t="n">
+        <v>55</v>
+      </c>
+      <c r="H168" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>180</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>437.7935094653631</v>
+      </c>
+      <c r="G169" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="H169" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="B170" t="n">
+        <v>180</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>428.7809444560017</v>
+      </c>
+      <c r="G170" t="n">
+        <v>55</v>
+      </c>
+      <c r="H170" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="B171" t="n">
+        <v>180</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>428.7809444560017</v>
+      </c>
+      <c r="G171" t="n">
+        <v>55</v>
+      </c>
+      <c r="H171" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>33</v>
+      </c>
+      <c r="B172" t="n">
+        <v>180</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>289.9417516122322</v>
+      </c>
+      <c r="G172" t="n">
+        <v>55</v>
+      </c>
+      <c r="H172" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>180</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>351.7266486374039</v>
+      </c>
+      <c r="G173" t="n">
+        <v>55</v>
+      </c>
+      <c r="H173" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>180</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>351.7266486374039</v>
+      </c>
+      <c r="G174" t="n">
+        <v>55</v>
+      </c>
+      <c r="H174" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="B175" t="n">
+        <v>180</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>428.7809444560017</v>
+      </c>
+      <c r="G175" t="n">
+        <v>55</v>
+      </c>
+      <c r="H175" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>60</v>
+      </c>
+      <c r="B176" t="n">
+        <v>180</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>289.9417516122322</v>
+      </c>
+      <c r="G176" t="n">
+        <v>55</v>
+      </c>
+      <c r="H176" t="n">
         <v>305</v>
       </c>
     </row>
